--- a/vs/scattered erasure by key.xlsx
+++ b/vs/scattered erasure by key.xlsx
@@ -5244,13 +5244,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>108.509</v>
+        <v>64.5664</v>
       </c>
       <c r="C2" t="n">
-        <v>120.057</v>
+        <v>62.7164</v>
       </c>
       <c r="D2" t="n">
-        <v>117.075</v>
+        <v>59.407</v>
       </c>
     </row>
     <row r="3">
@@ -5258,13 +5258,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>113.655</v>
+        <v>64.5595</v>
       </c>
       <c r="C3" t="n">
-        <v>107.05</v>
+        <v>62.9953</v>
       </c>
       <c r="D3" t="n">
-        <v>113.076</v>
+        <v>60.0128</v>
       </c>
     </row>
     <row r="4">
@@ -5272,13 +5272,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>105.419</v>
+        <v>64.959</v>
       </c>
       <c r="C4" t="n">
-        <v>109.848</v>
+        <v>63.4356</v>
       </c>
       <c r="D4" t="n">
-        <v>115.545</v>
+        <v>60.2345</v>
       </c>
     </row>
     <row r="5">
@@ -5286,13 +5286,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>109.026</v>
+        <v>63.3688</v>
       </c>
       <c r="C5" t="n">
-        <v>112.787</v>
+        <v>63.3883</v>
       </c>
       <c r="D5" t="n">
-        <v>114.89</v>
+        <v>60.3385</v>
       </c>
     </row>
     <row r="6">
@@ -5300,13 +5300,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>111.756</v>
+        <v>66.2032</v>
       </c>
       <c r="C6" t="n">
-        <v>117.137</v>
+        <v>64.1425</v>
       </c>
       <c r="D6" t="n">
-        <v>117.474</v>
+        <v>61.2017</v>
       </c>
     </row>
     <row r="7">
@@ -5314,13 +5314,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>110.629</v>
+        <v>64.44880000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>114.734</v>
+        <v>63.9312</v>
       </c>
       <c r="D7" t="n">
-        <v>113.572</v>
+        <v>61.3915</v>
       </c>
     </row>
     <row r="8">
@@ -5328,13 +5328,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>112.145</v>
+        <v>64.5962</v>
       </c>
       <c r="C8" t="n">
-        <v>114.419</v>
+        <v>63.6611</v>
       </c>
       <c r="D8" t="n">
-        <v>112.813</v>
+        <v>60.7155</v>
       </c>
     </row>
     <row r="9">
@@ -5342,13 +5342,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>100.229</v>
+        <v>64.527</v>
       </c>
       <c r="C9" t="n">
-        <v>103.08</v>
+        <v>63.8648</v>
       </c>
       <c r="D9" t="n">
-        <v>111.551</v>
+        <v>61.1988</v>
       </c>
     </row>
     <row r="10">
@@ -5356,13 +5356,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>107.559</v>
+        <v>64.5348</v>
       </c>
       <c r="C10" t="n">
-        <v>110.826</v>
+        <v>64.19750000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>110.762</v>
+        <v>61.1172</v>
       </c>
     </row>
     <row r="11">
@@ -5370,13 +5370,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>106.146</v>
+        <v>64.4178</v>
       </c>
       <c r="C11" t="n">
-        <v>109.311</v>
+        <v>64.2504</v>
       </c>
       <c r="D11" t="n">
-        <v>110.601</v>
+        <v>61.2846</v>
       </c>
     </row>
     <row r="12">
@@ -5384,13 +5384,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>104.741</v>
+        <v>65.5252</v>
       </c>
       <c r="C12" t="n">
-        <v>110.084</v>
+        <v>64.5895</v>
       </c>
       <c r="D12" t="n">
-        <v>112.717</v>
+        <v>61.5941</v>
       </c>
     </row>
     <row r="13">
@@ -5398,13 +5398,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>103.366</v>
+        <v>65.5772</v>
       </c>
       <c r="C13" t="n">
-        <v>106.463</v>
+        <v>64.895</v>
       </c>
       <c r="D13" t="n">
-        <v>109.828</v>
+        <v>62.1032</v>
       </c>
     </row>
     <row r="14">
@@ -5412,13 +5412,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>108.72</v>
+        <v>65.7354</v>
       </c>
       <c r="C14" t="n">
-        <v>110.882</v>
+        <v>64.7128</v>
       </c>
       <c r="D14" t="n">
-        <v>112.71</v>
+        <v>62.0479</v>
       </c>
     </row>
     <row r="15">
@@ -5426,13 +5426,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>104.426</v>
+        <v>65.17400000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>107.543</v>
+        <v>65.1204</v>
       </c>
       <c r="D15" t="n">
-        <v>108.357</v>
+        <v>62.4509</v>
       </c>
     </row>
     <row r="16">
@@ -5440,13 +5440,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>103.042</v>
+        <v>64.7414</v>
       </c>
       <c r="C16" t="n">
-        <v>105.15</v>
+        <v>64.9842</v>
       </c>
       <c r="D16" t="n">
-        <v>106.129</v>
+        <v>61.816</v>
       </c>
     </row>
     <row r="17">
@@ -5454,13 +5454,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>100.329</v>
+        <v>63.6902</v>
       </c>
       <c r="C17" t="n">
-        <v>107.909</v>
+        <v>65.05670000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>104.013</v>
+        <v>62.0269</v>
       </c>
     </row>
     <row r="18">
@@ -5468,13 +5468,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>97.9435</v>
+        <v>64.07689999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>105.453</v>
+        <v>65.2433</v>
       </c>
       <c r="D18" t="n">
-        <v>103.302</v>
+        <v>62.1894</v>
       </c>
     </row>
     <row r="19">
@@ -5482,13 +5482,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>95.45180000000001</v>
+        <v>64.9593</v>
       </c>
       <c r="C19" t="n">
-        <v>95.7959</v>
+        <v>65.3197</v>
       </c>
       <c r="D19" t="n">
-        <v>94.1071</v>
+        <v>62.4747</v>
       </c>
     </row>
     <row r="20">
@@ -5496,13 +5496,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>85.26220000000001</v>
+        <v>64.47499999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>85.7876</v>
+        <v>65.60169999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>88.6383</v>
+        <v>62.6773</v>
       </c>
     </row>
     <row r="21">
@@ -5510,13 +5510,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>82.2414</v>
+        <v>64.98869999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>79.3708</v>
+        <v>65.6317</v>
       </c>
       <c r="D21" t="n">
-        <v>87.032</v>
+        <v>63.1014</v>
       </c>
     </row>
     <row r="22">
@@ -5524,13 +5524,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>83.52500000000001</v>
+        <v>65.2885</v>
       </c>
       <c r="C22" t="n">
-        <v>78.8151</v>
+        <v>65.89579999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>79.8873</v>
+        <v>63.5252</v>
       </c>
     </row>
     <row r="23">
@@ -5538,13 +5538,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>79.8246</v>
+        <v>65.9406</v>
       </c>
       <c r="C23" t="n">
-        <v>81.66840000000001</v>
+        <v>65.9063</v>
       </c>
       <c r="D23" t="n">
-        <v>84.4199</v>
+        <v>63.468</v>
       </c>
     </row>
     <row r="24">
@@ -5552,13 +5552,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>83.74809999999999</v>
+        <v>65.4956</v>
       </c>
       <c r="C24" t="n">
-        <v>82.25490000000001</v>
+        <v>66.00709999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>82.81570000000001</v>
+        <v>63.1649</v>
       </c>
     </row>
     <row r="25">
@@ -5566,13 +5566,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>81.11539999999999</v>
+        <v>66.0528</v>
       </c>
       <c r="C25" t="n">
-        <v>84.92570000000001</v>
+        <v>66.17749999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>81.32129999999999</v>
+        <v>64.0103</v>
       </c>
     </row>
     <row r="26">
@@ -5580,13 +5580,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>79.6536</v>
+        <v>66.3279</v>
       </c>
       <c r="C26" t="n">
-        <v>79.9444</v>
+        <v>66.4004</v>
       </c>
       <c r="D26" t="n">
-        <v>81.9546</v>
+        <v>64.1561</v>
       </c>
     </row>
     <row r="27">
@@ -5594,13 +5594,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>79.38939999999999</v>
+        <v>65.5904</v>
       </c>
       <c r="C27" t="n">
-        <v>82.9817</v>
+        <v>66.59520000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>84.6679</v>
+        <v>64.1645</v>
       </c>
     </row>
     <row r="28">
@@ -5608,13 +5608,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>80.1045</v>
+        <v>65.6583</v>
       </c>
       <c r="C28" t="n">
-        <v>82.83920000000001</v>
+        <v>66.6439</v>
       </c>
       <c r="D28" t="n">
-        <v>84.15770000000001</v>
+        <v>64.0539</v>
       </c>
     </row>
     <row r="29">
@@ -5622,13 +5622,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>79.50069999999999</v>
+        <v>65.7889</v>
       </c>
       <c r="C29" t="n">
-        <v>82.7684</v>
+        <v>67.1259</v>
       </c>
       <c r="D29" t="n">
-        <v>81.9063</v>
+        <v>64.4577</v>
       </c>
     </row>
     <row r="30">
@@ -5636,13 +5636,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>83.5575</v>
+        <v>66.33459999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>86.88720000000001</v>
+        <v>67.5398</v>
       </c>
       <c r="D30" t="n">
-        <v>84.1225</v>
+        <v>64.5141</v>
       </c>
     </row>
     <row r="31">
@@ -5650,13 +5650,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>82.2598</v>
+        <v>66.113</v>
       </c>
       <c r="C31" t="n">
-        <v>80.7655</v>
+        <v>67.55759999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>83.1442</v>
+        <v>65.1758</v>
       </c>
     </row>
     <row r="32">
@@ -5664,13 +5664,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>77.1677</v>
+        <v>66.40560000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>77.19119999999999</v>
+        <v>67.524</v>
       </c>
       <c r="D32" t="n">
-        <v>79.4119</v>
+        <v>64.73699999999999</v>
       </c>
     </row>
     <row r="33">
@@ -5678,13 +5678,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>81.402</v>
+        <v>66.6194</v>
       </c>
       <c r="C33" t="n">
-        <v>80.5485</v>
+        <v>67.50060000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>82.1754</v>
+        <v>65.2437</v>
       </c>
     </row>
     <row r="34">
@@ -5692,13 +5692,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>78.86969999999999</v>
+        <v>67.7503</v>
       </c>
       <c r="C34" t="n">
-        <v>76.556</v>
+        <v>67.678</v>
       </c>
       <c r="D34" t="n">
-        <v>80.76479999999999</v>
+        <v>65.8039</v>
       </c>
     </row>
     <row r="35">
@@ -5706,13 +5706,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>80.3488</v>
+        <v>67.2084</v>
       </c>
       <c r="C35" t="n">
-        <v>80.1918</v>
+        <v>67.7058</v>
       </c>
       <c r="D35" t="n">
-        <v>81.7985</v>
+        <v>66.4286</v>
       </c>
     </row>
     <row r="36">
@@ -5720,13 +5720,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>81.515</v>
+        <v>68.2276</v>
       </c>
       <c r="C36" t="n">
-        <v>83.8205</v>
+        <v>68.254</v>
       </c>
       <c r="D36" t="n">
-        <v>81.9717</v>
+        <v>67.03570000000001</v>
       </c>
     </row>
     <row r="37">
@@ -5734,13 +5734,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>79.7621</v>
+        <v>68.8685</v>
       </c>
       <c r="C37" t="n">
-        <v>79.1737</v>
+        <v>68.5928</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4383</v>
+        <v>67.9472</v>
       </c>
     </row>
     <row r="38">
@@ -5748,13 +5748,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>82.38379999999999</v>
+        <v>69.5324</v>
       </c>
       <c r="C38" t="n">
-        <v>81.4315</v>
+        <v>69.40009999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>82.8339</v>
+        <v>69.0157</v>
       </c>
     </row>
     <row r="39">
@@ -5762,13 +5762,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>82.0729</v>
+        <v>70.81310000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>81.4114</v>
+        <v>70.4499</v>
       </c>
       <c r="D39" t="n">
-        <v>82.31399999999999</v>
+        <v>70.0946</v>
       </c>
     </row>
     <row r="40">
@@ -5776,13 +5776,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>81.48090000000001</v>
+        <v>71.9845</v>
       </c>
       <c r="C40" t="n">
-        <v>81.3802</v>
+        <v>70.9247</v>
       </c>
       <c r="D40" t="n">
-        <v>83.54989999999999</v>
+        <v>71.3164</v>
       </c>
     </row>
     <row r="41">
@@ -5790,13 +5790,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>83.0853</v>
+        <v>74.1725</v>
       </c>
       <c r="C41" t="n">
-        <v>83.4589</v>
+        <v>71.6474</v>
       </c>
       <c r="D41" t="n">
-        <v>83.8069</v>
+        <v>72.63679999999999</v>
       </c>
     </row>
     <row r="42">
@@ -5804,13 +5804,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>84.1994</v>
+        <v>76.74120000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>82.1567</v>
+        <v>72.4496</v>
       </c>
       <c r="D42" t="n">
-        <v>84.1614</v>
+        <v>73.6302</v>
       </c>
     </row>
     <row r="43">
@@ -5818,13 +5818,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>86.05459999999999</v>
+        <v>76.48439999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>84.7406</v>
+        <v>72.3766</v>
       </c>
       <c r="D43" t="n">
-        <v>87.6605</v>
+        <v>74.5258</v>
       </c>
     </row>
     <row r="44">
@@ -5832,13 +5832,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>89.7586</v>
+        <v>79.2769</v>
       </c>
       <c r="C44" t="n">
-        <v>82.17400000000001</v>
+        <v>74.6236</v>
       </c>
       <c r="D44" t="n">
-        <v>88.88249999999999</v>
+        <v>77.1905</v>
       </c>
     </row>
     <row r="45">
@@ -5846,13 +5846,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>90.5856</v>
+        <v>81.63679999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>85.7069</v>
+        <v>75.8165</v>
       </c>
       <c r="D45" t="n">
-        <v>90.21939999999999</v>
+        <v>79.97369999999999</v>
       </c>
     </row>
     <row r="46">
@@ -5860,13 +5860,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>91.7332</v>
+        <v>84.1163</v>
       </c>
       <c r="C46" t="n">
-        <v>85.758</v>
+        <v>76.5475</v>
       </c>
       <c r="D46" t="n">
-        <v>91.6352</v>
+        <v>82.6221</v>
       </c>
     </row>
     <row r="47">
@@ -5874,13 +5874,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>93.25279999999999</v>
+        <v>87.7334</v>
       </c>
       <c r="C47" t="n">
-        <v>86.7443</v>
+        <v>79.2234</v>
       </c>
       <c r="D47" t="n">
-        <v>92.2371</v>
+        <v>86.30670000000001</v>
       </c>
     </row>
     <row r="48">
@@ -5888,13 +5888,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>95.2457</v>
+        <v>91.8537</v>
       </c>
       <c r="C48" t="n">
-        <v>85.8732</v>
+        <v>80.542</v>
       </c>
       <c r="D48" t="n">
-        <v>95.3506</v>
+        <v>89.14149999999999</v>
       </c>
     </row>
     <row r="49">
@@ -5902,13 +5902,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>98.74890000000001</v>
+        <v>95.38630000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>89.71850000000001</v>
+        <v>82.7559</v>
       </c>
       <c r="D49" t="n">
-        <v>99.7398</v>
+        <v>92.9932</v>
       </c>
     </row>
     <row r="50">
@@ -5916,13 +5916,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>101.837</v>
+        <v>98.1512</v>
       </c>
       <c r="C50" t="n">
-        <v>91.441</v>
+        <v>85.9359</v>
       </c>
       <c r="D50" t="n">
-        <v>105.522</v>
+        <v>103.393</v>
       </c>
     </row>
     <row r="51">
@@ -5930,13 +5930,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>101.963</v>
+        <v>102.395</v>
       </c>
       <c r="C51" t="n">
-        <v>93.1588</v>
+        <v>89.9465</v>
       </c>
       <c r="D51" t="n">
-        <v>109.101</v>
+        <v>108.013</v>
       </c>
     </row>
     <row r="52">
@@ -5944,13 +5944,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>107.591</v>
+        <v>107.277</v>
       </c>
       <c r="C52" t="n">
-        <v>98.2987</v>
+        <v>93.7423</v>
       </c>
       <c r="D52" t="n">
-        <v>116.77</v>
+        <v>114.156</v>
       </c>
     </row>
     <row r="53">
@@ -5958,13 +5958,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>112.41</v>
+        <v>111.253</v>
       </c>
       <c r="C53" t="n">
-        <v>104.138</v>
+        <v>99.74379999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>122.959</v>
+        <v>119.516</v>
       </c>
     </row>
     <row r="54">
@@ -5972,13 +5972,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>117.136</v>
+        <v>116.485</v>
       </c>
       <c r="C54" t="n">
-        <v>110.001</v>
+        <v>102.357</v>
       </c>
       <c r="D54" t="n">
-        <v>126.451</v>
+        <v>124.824</v>
       </c>
     </row>
     <row r="55">
@@ -5986,13 +5986,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>121.868</v>
+        <v>121.281</v>
       </c>
       <c r="C55" t="n">
-        <v>112.648</v>
+        <v>107.564</v>
       </c>
       <c r="D55" t="n">
-        <v>132.307</v>
+        <v>132.644</v>
       </c>
     </row>
     <row r="56">
@@ -6000,13 +6000,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>126.34</v>
+        <v>126.379</v>
       </c>
       <c r="C56" t="n">
-        <v>117.636</v>
+        <v>115.579</v>
       </c>
       <c r="D56" t="n">
-        <v>136.679</v>
+        <v>136.612</v>
       </c>
     </row>
     <row r="57">
@@ -6014,13 +6014,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>131.705</v>
+        <v>133.126</v>
       </c>
       <c r="C57" t="n">
-        <v>123.589</v>
+        <v>119.536</v>
       </c>
       <c r="D57" t="n">
-        <v>142.15</v>
+        <v>143.249</v>
       </c>
     </row>
     <row r="58">
@@ -6028,13 +6028,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>136.716</v>
+        <v>137.121</v>
       </c>
       <c r="C58" t="n">
-        <v>127.864</v>
+        <v>127.484</v>
       </c>
       <c r="D58" t="n">
-        <v>148.565</v>
+        <v>148.22</v>
       </c>
     </row>
     <row r="59">
@@ -6042,13 +6042,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>140.501</v>
+        <v>142.864</v>
       </c>
       <c r="C59" t="n">
-        <v>132.223</v>
+        <v>133.609</v>
       </c>
       <c r="D59" t="n">
-        <v>153.514</v>
+        <v>154.335</v>
       </c>
     </row>
     <row r="60">
@@ -6056,13 +6056,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>146.604</v>
+        <v>145.847</v>
       </c>
       <c r="C60" t="n">
-        <v>138.346</v>
+        <v>139.033</v>
       </c>
       <c r="D60" t="n">
-        <v>158.249</v>
+        <v>159.982</v>
       </c>
     </row>
     <row r="61">
@@ -6070,13 +6070,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>152.309</v>
+        <v>150.765</v>
       </c>
       <c r="C61" t="n">
-        <v>144.457</v>
+        <v>145.096</v>
       </c>
       <c r="D61" t="n">
-        <v>164.106</v>
+        <v>163.896</v>
       </c>
     </row>
     <row r="62">
@@ -6084,13 +6084,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>153.797</v>
+        <v>156.2</v>
       </c>
       <c r="C62" t="n">
-        <v>150.678</v>
+        <v>150.53</v>
       </c>
       <c r="D62" t="n">
-        <v>168.624</v>
+        <v>169.788</v>
       </c>
     </row>
     <row r="63">
@@ -6098,13 +6098,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>158.474</v>
+        <v>160.943</v>
       </c>
       <c r="C63" t="n">
-        <v>158.667</v>
+        <v>158.06</v>
       </c>
       <c r="D63" t="n">
-        <v>173.872</v>
+        <v>173.769</v>
       </c>
     </row>
     <row r="64">
@@ -6112,13 +6112,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>162.679</v>
+        <v>163.469</v>
       </c>
       <c r="C64" t="n">
-        <v>166.339</v>
+        <v>166.973</v>
       </c>
       <c r="D64" t="n">
-        <v>181.915</v>
+        <v>182.918</v>
       </c>
     </row>
     <row r="65">
@@ -6126,13 +6126,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>167.513</v>
+        <v>166.138</v>
       </c>
       <c r="C65" t="n">
-        <v>172.456</v>
+        <v>172.562</v>
       </c>
       <c r="D65" t="n">
-        <v>187.459</v>
+        <v>187.162</v>
       </c>
     </row>
     <row r="66">
@@ -6140,13 +6140,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>168.888</v>
+        <v>171.114</v>
       </c>
       <c r="C66" t="n">
-        <v>178.435</v>
+        <v>180.104</v>
       </c>
       <c r="D66" t="n">
-        <v>189.373</v>
+        <v>191.74</v>
       </c>
     </row>
     <row r="67">
@@ -6154,13 +6154,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>171.906</v>
+        <v>174.868</v>
       </c>
       <c r="C67" t="n">
-        <v>184.28</v>
+        <v>185.44</v>
       </c>
       <c r="D67" t="n">
-        <v>194.219</v>
+        <v>195.634</v>
       </c>
     </row>
     <row r="68">
@@ -6168,13 +6168,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>175.337</v>
+        <v>178.031</v>
       </c>
       <c r="C68" t="n">
-        <v>189.3</v>
+        <v>190.479</v>
       </c>
       <c r="D68" t="n">
-        <v>198.985</v>
+        <v>198.18</v>
       </c>
     </row>
     <row r="69">
@@ -6182,13 +6182,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>179.979</v>
+        <v>180.802</v>
       </c>
       <c r="C69" t="n">
-        <v>194.565</v>
+        <v>196.181</v>
       </c>
       <c r="D69" t="n">
-        <v>200.895</v>
+        <v>202.302</v>
       </c>
     </row>
     <row r="70">
@@ -6196,13 +6196,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>184.066</v>
+        <v>184.419</v>
       </c>
       <c r="C70" t="n">
-        <v>199.016</v>
+        <v>199.96</v>
       </c>
       <c r="D70" t="n">
-        <v>204.068</v>
+        <v>205.768</v>
       </c>
     </row>
     <row r="71">
@@ -6210,13 +6210,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>187.35</v>
+        <v>189.419</v>
       </c>
       <c r="C71" t="n">
-        <v>202.977</v>
+        <v>204.69</v>
       </c>
       <c r="D71" t="n">
-        <v>207.056</v>
+        <v>208.029</v>
       </c>
     </row>
     <row r="72">
@@ -6224,13 +6224,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>190.984</v>
+        <v>190.966</v>
       </c>
       <c r="C72" t="n">
-        <v>208.572</v>
+        <v>208.671</v>
       </c>
       <c r="D72" t="n">
-        <v>210.776</v>
+        <v>211.747</v>
       </c>
     </row>
     <row r="73">
@@ -6238,13 +6238,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>193.452</v>
+        <v>195.162</v>
       </c>
       <c r="C73" t="n">
-        <v>212.563</v>
+        <v>213.539</v>
       </c>
       <c r="D73" t="n">
-        <v>213.764</v>
+        <v>214.715</v>
       </c>
     </row>
     <row r="74">
@@ -6252,13 +6252,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>196.541</v>
+        <v>197.865</v>
       </c>
       <c r="C74" t="n">
-        <v>216.866</v>
+        <v>217.041</v>
       </c>
       <c r="D74" t="n">
-        <v>217.449</v>
+        <v>218.337</v>
       </c>
     </row>
     <row r="75">
@@ -6266,13 +6266,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>198.382</v>
+        <v>199.425</v>
       </c>
       <c r="C75" t="n">
-        <v>220.659</v>
+        <v>221.866</v>
       </c>
       <c r="D75" t="n">
-        <v>220.557</v>
+        <v>221.521</v>
       </c>
     </row>
     <row r="76">
@@ -6280,13 +6280,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>201.994</v>
+        <v>202.99</v>
       </c>
       <c r="C76" t="n">
-        <v>224.706</v>
+        <v>224.934</v>
       </c>
       <c r="D76" t="n">
-        <v>223.293</v>
+        <v>224.218</v>
       </c>
     </row>
     <row r="77">
@@ -6294,13 +6294,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>204.98</v>
+        <v>205.415</v>
       </c>
       <c r="C77" t="n">
-        <v>228.409</v>
+        <v>228.531</v>
       </c>
       <c r="D77" t="n">
-        <v>226.446</v>
+        <v>226.494</v>
       </c>
     </row>
     <row r="78">
@@ -6308,13 +6308,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>207.493</v>
+        <v>207.131</v>
       </c>
       <c r="C78" t="n">
-        <v>234.022</v>
+        <v>232.759</v>
       </c>
       <c r="D78" t="n">
-        <v>232.548</v>
+        <v>232.365</v>
       </c>
     </row>
     <row r="79">
@@ -6322,13 +6322,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>208.177</v>
+        <v>209.976</v>
       </c>
       <c r="C79" t="n">
-        <v>235.713</v>
+        <v>236.115</v>
       </c>
       <c r="D79" t="n">
-        <v>235.842</v>
+        <v>235.593</v>
       </c>
     </row>
     <row r="80">
@@ -6336,13 +6336,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>211.365</v>
+        <v>213.145</v>
       </c>
       <c r="C80" t="n">
-        <v>238.978</v>
+        <v>239.042</v>
       </c>
       <c r="D80" t="n">
-        <v>237.773</v>
+        <v>237.924</v>
       </c>
     </row>
     <row r="81">
@@ -6350,13 +6350,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>213.971</v>
+        <v>214.96</v>
       </c>
       <c r="C81" t="n">
-        <v>242.391</v>
+        <v>242.002</v>
       </c>
       <c r="D81" t="n">
-        <v>238.944</v>
+        <v>240.542</v>
       </c>
     </row>
     <row r="82">
@@ -6364,13 +6364,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>217.9</v>
+        <v>217.077</v>
       </c>
       <c r="C82" t="n">
-        <v>245.175</v>
+        <v>245.395</v>
       </c>
       <c r="D82" t="n">
-        <v>242.276</v>
+        <v>243.709</v>
       </c>
     </row>
     <row r="83">
@@ -6378,13 +6378,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>219.618</v>
+        <v>220.206</v>
       </c>
       <c r="C83" t="n">
-        <v>247.938</v>
+        <v>247.974</v>
       </c>
       <c r="D83" t="n">
-        <v>243.397</v>
+        <v>245.603</v>
       </c>
     </row>
     <row r="84">
@@ -6392,13 +6392,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>222.112</v>
+        <v>222</v>
       </c>
       <c r="C84" t="n">
-        <v>250.834</v>
+        <v>250.955</v>
       </c>
       <c r="D84" t="n">
-        <v>247.674</v>
+        <v>247.167</v>
       </c>
     </row>
     <row r="85">
@@ -6406,13 +6406,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>224.4</v>
+        <v>224.191</v>
       </c>
       <c r="C85" t="n">
-        <v>253.084</v>
+        <v>253.586</v>
       </c>
       <c r="D85" t="n">
-        <v>250.813</v>
+        <v>249.891</v>
       </c>
     </row>
     <row r="86">
@@ -6420,13 +6420,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>228.044</v>
+        <v>228.428</v>
       </c>
       <c r="C86" t="n">
-        <v>256.233</v>
+        <v>255.677</v>
       </c>
       <c r="D86" t="n">
-        <v>254.25</v>
+        <v>254.673</v>
       </c>
     </row>
     <row r="87">
@@ -6434,13 +6434,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>231.732</v>
+        <v>230.586</v>
       </c>
       <c r="C87" t="n">
-        <v>258.708</v>
+        <v>258.813</v>
       </c>
       <c r="D87" t="n">
-        <v>255.567</v>
+        <v>255.524</v>
       </c>
     </row>
     <row r="88">
@@ -6448,13 +6448,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>230.589</v>
+        <v>231.413</v>
       </c>
       <c r="C88" t="n">
-        <v>261.099</v>
+        <v>261.088</v>
       </c>
       <c r="D88" t="n">
-        <v>257.216</v>
+        <v>256.697</v>
       </c>
     </row>
     <row r="89">
@@ -6462,13 +6462,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>233.487</v>
+        <v>233.169</v>
       </c>
       <c r="C89" t="n">
-        <v>263.776</v>
+        <v>263.223</v>
       </c>
       <c r="D89" t="n">
-        <v>259.454</v>
+        <v>259.593</v>
       </c>
     </row>
     <row r="90">
@@ -6476,13 +6476,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>236.004</v>
+        <v>234.942</v>
       </c>
       <c r="C90" t="n">
-        <v>266.808</v>
+        <v>266.262</v>
       </c>
       <c r="D90" t="n">
-        <v>260.641</v>
+        <v>261.217</v>
       </c>
     </row>
     <row r="91">
@@ -6490,13 +6490,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>236.234</v>
+        <v>238.216</v>
       </c>
       <c r="C91" t="n">
-        <v>269.382</v>
+        <v>268.272</v>
       </c>
       <c r="D91" t="n">
-        <v>263.321</v>
+        <v>263.537</v>
       </c>
     </row>
     <row r="92">
@@ -6504,13 +6504,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>239.012</v>
+        <v>239.716</v>
       </c>
       <c r="C92" t="n">
-        <v>269.871</v>
+        <v>271.14</v>
       </c>
       <c r="D92" t="n">
-        <v>267.103</v>
+        <v>266.985</v>
       </c>
     </row>
     <row r="93">
@@ -6518,13 +6518,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>241.793</v>
+        <v>241.468</v>
       </c>
       <c r="C93" t="n">
-        <v>272.168</v>
+        <v>273.201</v>
       </c>
       <c r="D93" t="n">
-        <v>268.318</v>
+        <v>268.576</v>
       </c>
     </row>
     <row r="94">
@@ -6532,13 +6532,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>242.195</v>
+        <v>244.419</v>
       </c>
       <c r="C94" t="n">
-        <v>274.339</v>
+        <v>275.007</v>
       </c>
       <c r="D94" t="n">
-        <v>271.397</v>
+        <v>270.519</v>
       </c>
     </row>
     <row r="95">
@@ -6546,13 +6546,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>244.067</v>
+        <v>246.924</v>
       </c>
       <c r="C95" t="n">
-        <v>277.086</v>
+        <v>277.074</v>
       </c>
       <c r="D95" t="n">
-        <v>273.675</v>
+        <v>274.282</v>
       </c>
     </row>
     <row r="96">
@@ -6560,13 +6560,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>247.028</v>
+        <v>248.204</v>
       </c>
       <c r="C96" t="n">
-        <v>278.083</v>
+        <v>279.267</v>
       </c>
       <c r="D96" t="n">
-        <v>275.576</v>
+        <v>276.581</v>
       </c>
     </row>
     <row r="97">
@@ -6574,13 +6574,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>249.755</v>
+        <v>250.482</v>
       </c>
       <c r="C97" t="n">
-        <v>280.676</v>
+        <v>281.691</v>
       </c>
       <c r="D97" t="n">
-        <v>277.865</v>
+        <v>277.394</v>
       </c>
     </row>
     <row r="98">
@@ -6588,13 +6588,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>250.981</v>
+        <v>253.756</v>
       </c>
       <c r="C98" t="n">
-        <v>282.283</v>
+        <v>283.54</v>
       </c>
       <c r="D98" t="n">
-        <v>280.319</v>
+        <v>280.569</v>
       </c>
     </row>
     <row r="99">
@@ -6602,13 +6602,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>255.961</v>
+        <v>254.301</v>
       </c>
       <c r="C99" t="n">
-        <v>285.128</v>
+        <v>285.779</v>
       </c>
       <c r="D99" t="n">
-        <v>282.576</v>
+        <v>283.235</v>
       </c>
     </row>
     <row r="100">
@@ -6616,13 +6616,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>256.125</v>
+        <v>256.912</v>
       </c>
       <c r="C100" t="n">
-        <v>287.785</v>
+        <v>287.208</v>
       </c>
       <c r="D100" t="n">
-        <v>284.165</v>
+        <v>284.829</v>
       </c>
     </row>
     <row r="101">
@@ -6630,13 +6630,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>258.832</v>
+        <v>260.448</v>
       </c>
       <c r="C101" t="n">
-        <v>289.772</v>
+        <v>289.695</v>
       </c>
       <c r="D101" t="n">
-        <v>286.005</v>
+        <v>287.327</v>
       </c>
     </row>
     <row r="102">
@@ -6644,13 +6644,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>261.533</v>
+        <v>260.063</v>
       </c>
       <c r="C102" t="n">
-        <v>291.312</v>
+        <v>292.288</v>
       </c>
       <c r="D102" t="n">
-        <v>288.515</v>
+        <v>289.906</v>
       </c>
     </row>
     <row r="103">
@@ -6658,13 +6658,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>262.176</v>
+        <v>263.736</v>
       </c>
       <c r="C103" t="n">
-        <v>294.768</v>
+        <v>295.097</v>
       </c>
       <c r="D103" t="n">
-        <v>289.652</v>
+        <v>291.114</v>
       </c>
     </row>
     <row r="104">
@@ -6672,13 +6672,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>264.703</v>
+        <v>265.421</v>
       </c>
       <c r="C104" t="n">
-        <v>296.401</v>
+        <v>297.647</v>
       </c>
       <c r="D104" t="n">
-        <v>291.857</v>
+        <v>293.588</v>
       </c>
     </row>
     <row r="105">
@@ -6686,13 +6686,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>266.996</v>
+        <v>268.074</v>
       </c>
       <c r="C105" t="n">
-        <v>298.148</v>
+        <v>300.051</v>
       </c>
       <c r="D105" t="n">
-        <v>294.525</v>
+        <v>294.505</v>
       </c>
     </row>
     <row r="106">
@@ -6700,13 +6700,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>269.303</v>
+        <v>269.521</v>
       </c>
       <c r="C106" t="n">
-        <v>302.499</v>
+        <v>302.204</v>
       </c>
       <c r="D106" t="n">
-        <v>296.465</v>
+        <v>297.397</v>
       </c>
     </row>
     <row r="107">
@@ -6714,13 +6714,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>271.26</v>
+        <v>272.418</v>
       </c>
       <c r="C107" t="n">
-        <v>303.392</v>
+        <v>303.283</v>
       </c>
       <c r="D107" t="n">
-        <v>299.582</v>
+        <v>300.904</v>
       </c>
     </row>
     <row r="108">
@@ -6728,13 +6728,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>273.727</v>
+        <v>276.075</v>
       </c>
       <c r="C108" t="n">
-        <v>306.026</v>
+        <v>306.751</v>
       </c>
       <c r="D108" t="n">
-        <v>302.929</v>
+        <v>303.127</v>
       </c>
     </row>
     <row r="109">
@@ -6742,13 +6742,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>277.224</v>
+        <v>277.785</v>
       </c>
       <c r="C109" t="n">
-        <v>308.832</v>
+        <v>309.923</v>
       </c>
       <c r="D109" t="n">
-        <v>303.919</v>
+        <v>306.236</v>
       </c>
     </row>
     <row r="110">
@@ -6756,13 +6756,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>280.918</v>
+        <v>280.805</v>
       </c>
       <c r="C110" t="n">
-        <v>312.536</v>
+        <v>314.872</v>
       </c>
       <c r="D110" t="n">
-        <v>308.126</v>
+        <v>308.397</v>
       </c>
     </row>
     <row r="111">
@@ -6770,13 +6770,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>284.555</v>
+        <v>284.69</v>
       </c>
       <c r="C111" t="n">
-        <v>317.171</v>
+        <v>317.834</v>
       </c>
       <c r="D111" t="n">
-        <v>311.147</v>
+        <v>310.29</v>
       </c>
     </row>
     <row r="112">
@@ -6784,13 +6784,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>286.027</v>
+        <v>289.973</v>
       </c>
       <c r="C112" t="n">
-        <v>321.732</v>
+        <v>322.358</v>
       </c>
       <c r="D112" t="n">
-        <v>311.493</v>
+        <v>314.787</v>
       </c>
     </row>
     <row r="113">
@@ -6798,13 +6798,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>291.42</v>
+        <v>291.37</v>
       </c>
       <c r="C113" t="n">
-        <v>326.028</v>
+        <v>326.698</v>
       </c>
       <c r="D113" t="n">
-        <v>316.631</v>
+        <v>318.26</v>
       </c>
     </row>
     <row r="114">
@@ -6812,13 +6812,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>294.77</v>
+        <v>295.818</v>
       </c>
       <c r="C114" t="n">
-        <v>330.805</v>
+        <v>331.834</v>
       </c>
       <c r="D114" t="n">
-        <v>321.01</v>
+        <v>321.145</v>
       </c>
     </row>
     <row r="115">
@@ -6826,13 +6826,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>299.81</v>
+        <v>301.705</v>
       </c>
       <c r="C115" t="n">
-        <v>334.357</v>
+        <v>335.945</v>
       </c>
       <c r="D115" t="n">
-        <v>323.364</v>
+        <v>326.638</v>
       </c>
     </row>
     <row r="116">
@@ -6840,13 +6840,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>304.342</v>
+        <v>307.088</v>
       </c>
       <c r="C116" t="n">
-        <v>340.107</v>
+        <v>341.998</v>
       </c>
       <c r="D116" t="n">
-        <v>327.966</v>
+        <v>331.121</v>
       </c>
     </row>
     <row r="117">
@@ -6854,13 +6854,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>311.416</v>
+        <v>312.989</v>
       </c>
       <c r="C117" t="n">
-        <v>345.905</v>
+        <v>346.731</v>
       </c>
       <c r="D117" t="n">
-        <v>334.853</v>
+        <v>335.426</v>
       </c>
     </row>
     <row r="118">
@@ -6868,13 +6868,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>317.725</v>
+        <v>318.988</v>
       </c>
       <c r="C118" t="n">
-        <v>352.636</v>
+        <v>354.625</v>
       </c>
       <c r="D118" t="n">
-        <v>338.662</v>
+        <v>341.518</v>
       </c>
     </row>
     <row r="119">
@@ -6882,13 +6882,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>324.382</v>
+        <v>324.48</v>
       </c>
       <c r="C119" t="n">
-        <v>358.58</v>
+        <v>360.674</v>
       </c>
       <c r="D119" t="n">
-        <v>346.164</v>
+        <v>346.466</v>
       </c>
     </row>
   </sheetData>
@@ -6936,13 +6936,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>64.9425</v>
+        <v>65.0245</v>
       </c>
       <c r="C2" t="n">
-        <v>63.8153</v>
+        <v>64.0808</v>
       </c>
       <c r="D2" t="n">
-        <v>60.8198</v>
+        <v>61.3807</v>
       </c>
     </row>
     <row r="3">
@@ -6950,13 +6950,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>63.6182</v>
+        <v>63.8717</v>
       </c>
       <c r="C3" t="n">
-        <v>64.2559</v>
+        <v>64.3398</v>
       </c>
       <c r="D3" t="n">
-        <v>61.0967</v>
+        <v>61.525</v>
       </c>
     </row>
     <row r="4">
@@ -6964,13 +6964,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>63.8472</v>
+        <v>64.11969999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>64.4928</v>
+        <v>64.7946</v>
       </c>
       <c r="D4" t="n">
-        <v>61.5192</v>
+        <v>61.8571</v>
       </c>
     </row>
     <row r="5">
@@ -6978,13 +6978,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>64.17910000000001</v>
+        <v>64.4229</v>
       </c>
       <c r="C5" t="n">
-        <v>65.3955</v>
+        <v>64.99469999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>61.8203</v>
+        <v>62.0367</v>
       </c>
     </row>
     <row r="6">
@@ -6992,13 +6992,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>64.4002</v>
+        <v>66.0493</v>
       </c>
       <c r="C6" t="n">
-        <v>65.7915</v>
+        <v>66.0783</v>
       </c>
       <c r="D6" t="n">
-        <v>62.1586</v>
+        <v>62.4764</v>
       </c>
     </row>
     <row r="7">
@@ -7006,13 +7006,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>64.7071</v>
+        <v>64.80070000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>65.7974</v>
+        <v>65.87690000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>61.8977</v>
+        <v>62.1422</v>
       </c>
     </row>
     <row r="8">
@@ -7020,13 +7020,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>64.6604</v>
+        <v>64.62860000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>67.0403</v>
+        <v>65.8921</v>
       </c>
       <c r="D8" t="n">
-        <v>62.2694</v>
+        <v>62.7387</v>
       </c>
     </row>
     <row r="9">
@@ -7034,13 +7034,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>64.74809999999999</v>
+        <v>64.9513</v>
       </c>
       <c r="C9" t="n">
-        <v>65.95999999999999</v>
+        <v>66.6146</v>
       </c>
       <c r="D9" t="n">
-        <v>62.4019</v>
+        <v>62.3981</v>
       </c>
     </row>
     <row r="10">
@@ -7048,13 +7048,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>65.3843</v>
+        <v>65.5886</v>
       </c>
       <c r="C10" t="n">
-        <v>66.17489999999999</v>
+        <v>66.8047</v>
       </c>
       <c r="D10" t="n">
-        <v>62.8053</v>
+        <v>63.3706</v>
       </c>
     </row>
     <row r="11">
@@ -7062,13 +7062,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>65.3202</v>
+        <v>66.3755</v>
       </c>
       <c r="C11" t="n">
-        <v>65.43859999999999</v>
+        <v>65.5515</v>
       </c>
       <c r="D11" t="n">
-        <v>62.5044</v>
+        <v>62.7528</v>
       </c>
     </row>
     <row r="12">
@@ -7076,13 +7076,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>65.7189</v>
+        <v>65.9478</v>
       </c>
       <c r="C12" t="n">
-        <v>65.9188</v>
+        <v>65.875</v>
       </c>
       <c r="D12" t="n">
-        <v>62.6344</v>
+        <v>62.892</v>
       </c>
     </row>
     <row r="13">
@@ -7090,13 +7090,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>66.0483</v>
+        <v>66.6095</v>
       </c>
       <c r="C13" t="n">
-        <v>66.3323</v>
+        <v>66.4235</v>
       </c>
       <c r="D13" t="n">
-        <v>63.3579</v>
+        <v>63.4173</v>
       </c>
     </row>
     <row r="14">
@@ -7104,13 +7104,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>66.5415</v>
+        <v>66.584</v>
       </c>
       <c r="C14" t="n">
-        <v>66.35339999999999</v>
+        <v>66.8412</v>
       </c>
       <c r="D14" t="n">
-        <v>63.4904</v>
+        <v>63.4535</v>
       </c>
     </row>
     <row r="15">
@@ -7118,13 +7118,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>66.5896</v>
+        <v>67.0423</v>
       </c>
       <c r="C15" t="n">
-        <v>66.5205</v>
+        <v>66.8237</v>
       </c>
       <c r="D15" t="n">
-        <v>63.579</v>
+        <v>63.7446</v>
       </c>
     </row>
     <row r="16">
@@ -7132,13 +7132,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>66.9573</v>
+        <v>67.25700000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>66.9083</v>
+        <v>66.9774</v>
       </c>
       <c r="D16" t="n">
-        <v>63.6529</v>
+        <v>64.0489</v>
       </c>
     </row>
     <row r="17">
@@ -7146,13 +7146,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>65.64490000000001</v>
+        <v>65.98820000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>67.0877</v>
+        <v>67.2928</v>
       </c>
       <c r="D17" t="n">
-        <v>63.7664</v>
+        <v>63.9213</v>
       </c>
     </row>
     <row r="18">
@@ -7160,13 +7160,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>66.1922</v>
+        <v>65.89019999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>67.4606</v>
+        <v>67.3587</v>
       </c>
       <c r="D18" t="n">
-        <v>64.1148</v>
+        <v>64.0878</v>
       </c>
     </row>
     <row r="19">
@@ -7174,13 +7174,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>66.31059999999999</v>
+        <v>66.72029999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>67.5217</v>
+        <v>67.9541</v>
       </c>
       <c r="D19" t="n">
-        <v>64.2017</v>
+        <v>64.38120000000001</v>
       </c>
     </row>
     <row r="20">
@@ -7188,13 +7188,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>66.4448</v>
+        <v>67.07170000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>68.0291</v>
+        <v>68.2159</v>
       </c>
       <c r="D20" t="n">
-        <v>64.7525</v>
+        <v>64.952</v>
       </c>
     </row>
     <row r="21">
@@ -7202,13 +7202,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>67.0042</v>
+        <v>67.3614</v>
       </c>
       <c r="C21" t="n">
-        <v>68.1079</v>
+        <v>68.51609999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>65.1174</v>
+        <v>64.9115</v>
       </c>
     </row>
     <row r="22">
@@ -7216,13 +7216,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>67.4909</v>
+        <v>67.238</v>
       </c>
       <c r="C22" t="n">
-        <v>68.6293</v>
+        <v>69.3004</v>
       </c>
       <c r="D22" t="n">
-        <v>65.6173</v>
+        <v>65.5599</v>
       </c>
     </row>
     <row r="23">
@@ -7230,13 +7230,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>67.82989999999999</v>
+        <v>66.98779999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>68.6511</v>
+        <v>68.9909</v>
       </c>
       <c r="D23" t="n">
-        <v>65.58750000000001</v>
+        <v>65.1249</v>
       </c>
     </row>
     <row r="24">
@@ -7244,13 +7244,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>68.0994</v>
+        <v>67.4372</v>
       </c>
       <c r="C24" t="n">
-        <v>69.0956</v>
+        <v>69.1853</v>
       </c>
       <c r="D24" t="n">
-        <v>65.922</v>
+        <v>65.59480000000001</v>
       </c>
     </row>
     <row r="25">
@@ -7258,13 +7258,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>68.7264</v>
+        <v>68.7582</v>
       </c>
       <c r="C25" t="n">
-        <v>69.2754</v>
+        <v>69.6217</v>
       </c>
       <c r="D25" t="n">
-        <v>66.637</v>
+        <v>65.89870000000001</v>
       </c>
     </row>
     <row r="26">
@@ -7272,13 +7272,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>68.4738</v>
+        <v>68.9624</v>
       </c>
       <c r="C26" t="n">
-        <v>68.2163</v>
+        <v>68.2427</v>
       </c>
       <c r="D26" t="n">
-        <v>65.7349</v>
+        <v>65.7217</v>
       </c>
     </row>
     <row r="27">
@@ -7286,13 +7286,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>69.79519999999999</v>
+        <v>69.35599999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>69.2093</v>
+        <v>68.5291</v>
       </c>
       <c r="D27" t="n">
-        <v>66.6974</v>
+        <v>65.8569</v>
       </c>
     </row>
     <row r="28">
@@ -7300,13 +7300,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>69.7641</v>
+        <v>69.7384</v>
       </c>
       <c r="C28" t="n">
-        <v>69.1713</v>
+        <v>68.9217</v>
       </c>
       <c r="D28" t="n">
-        <v>66.3587</v>
+        <v>65.9243</v>
       </c>
     </row>
     <row r="29">
@@ -7314,13 +7314,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>69.6551</v>
+        <v>69.0227</v>
       </c>
       <c r="C29" t="n">
-        <v>69.3677</v>
+        <v>69.0421</v>
       </c>
       <c r="D29" t="n">
-        <v>66.9342</v>
+        <v>66.2392</v>
       </c>
     </row>
     <row r="30">
@@ -7328,13 +7328,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>69.995</v>
+        <v>70.06959999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>69.7115</v>
+        <v>69.3408</v>
       </c>
       <c r="D30" t="n">
-        <v>67.17700000000001</v>
+        <v>66.72199999999999</v>
       </c>
     </row>
     <row r="31">
@@ -7342,13 +7342,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>71.0699</v>
+        <v>70.4954</v>
       </c>
       <c r="C31" t="n">
-        <v>70.1708</v>
+        <v>69.9363</v>
       </c>
       <c r="D31" t="n">
-        <v>67.4796</v>
+        <v>67.06180000000001</v>
       </c>
     </row>
     <row r="32">
@@ -7356,13 +7356,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>69.5873</v>
+        <v>68.57089999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>70.46729999999999</v>
+        <v>70.0147</v>
       </c>
       <c r="D32" t="n">
-        <v>67.67659999999999</v>
+        <v>67.181</v>
       </c>
     </row>
     <row r="33">
@@ -7370,13 +7370,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>70.61450000000001</v>
+        <v>69.1135</v>
       </c>
       <c r="C33" t="n">
-        <v>70.7273</v>
+        <v>70.2478</v>
       </c>
       <c r="D33" t="n">
-        <v>68.43510000000001</v>
+        <v>67.7315</v>
       </c>
     </row>
     <row r="34">
@@ -7384,13 +7384,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>70.99930000000001</v>
+        <v>69.75149999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>71.2901</v>
+        <v>70.82210000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>69.25069999999999</v>
+        <v>68.68340000000001</v>
       </c>
     </row>
     <row r="35">
@@ -7398,13 +7398,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>70.9546</v>
+        <v>69.952</v>
       </c>
       <c r="C35" t="n">
-        <v>71.708</v>
+        <v>71.1347</v>
       </c>
       <c r="D35" t="n">
-        <v>69.5518</v>
+        <v>68.4849</v>
       </c>
     </row>
     <row r="36">
@@ -7412,13 +7412,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>70.9496</v>
+        <v>70.4687</v>
       </c>
       <c r="C36" t="n">
-        <v>72.84350000000001</v>
+        <v>71.4579</v>
       </c>
       <c r="D36" t="n">
-        <v>69.9646</v>
+        <v>69.235</v>
       </c>
     </row>
     <row r="37">
@@ -7426,13 +7426,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>72.1639</v>
+        <v>72.0257</v>
       </c>
       <c r="C37" t="n">
-        <v>72.7569</v>
+        <v>72.45610000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>70.63039999999999</v>
+        <v>70.0467</v>
       </c>
     </row>
     <row r="38">
@@ -7440,13 +7440,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>72.5852</v>
+        <v>71.8798</v>
       </c>
       <c r="C38" t="n">
-        <v>73.3145</v>
+        <v>72.20780000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>71.2106</v>
+        <v>70.6878</v>
       </c>
     </row>
     <row r="39">
@@ -7454,13 +7454,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>72.57389999999999</v>
+        <v>72.9576</v>
       </c>
       <c r="C39" t="n">
-        <v>73.3695</v>
+        <v>73.2274</v>
       </c>
       <c r="D39" t="n">
-        <v>72.0536</v>
+        <v>71.8045</v>
       </c>
     </row>
     <row r="40">
@@ -7468,13 +7468,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>74.6575</v>
+        <v>73.95959999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>73.3441</v>
+        <v>72.49639999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>72.6699</v>
+        <v>72.3278</v>
       </c>
     </row>
     <row r="41">
@@ -7482,13 +7482,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>75.71639999999999</v>
+        <v>75.163</v>
       </c>
       <c r="C41" t="n">
-        <v>73.59780000000001</v>
+        <v>72.67319999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>73.92319999999999</v>
+        <v>73.40389999999999</v>
       </c>
     </row>
     <row r="42">
@@ -7496,13 +7496,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>76.6964</v>
+        <v>76.0043</v>
       </c>
       <c r="C42" t="n">
-        <v>73.9584</v>
+        <v>74.0669</v>
       </c>
       <c r="D42" t="n">
-        <v>74.94329999999999</v>
+        <v>74.5703</v>
       </c>
     </row>
     <row r="43">
@@ -7510,13 +7510,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>77.17740000000001</v>
+        <v>77.3655</v>
       </c>
       <c r="C43" t="n">
-        <v>74.4992</v>
+        <v>74.8736</v>
       </c>
       <c r="D43" t="n">
-        <v>75.7396</v>
+        <v>75.37560000000001</v>
       </c>
     </row>
     <row r="44">
@@ -7524,13 +7524,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>78.9602</v>
+        <v>78.104</v>
       </c>
       <c r="C44" t="n">
-        <v>76.1464</v>
+        <v>75.68519999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>76.697</v>
+        <v>77.13939999999999</v>
       </c>
     </row>
     <row r="45">
@@ -7538,13 +7538,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>80.4186</v>
+        <v>80.10080000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>77.3473</v>
+        <v>77.27160000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>78.71469999999999</v>
+        <v>78.16630000000001</v>
       </c>
     </row>
     <row r="46">
@@ -7552,13 +7552,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>80.7769</v>
+        <v>81.697</v>
       </c>
       <c r="C46" t="n">
-        <v>78.8442</v>
+        <v>78.3111</v>
       </c>
       <c r="D46" t="n">
-        <v>80.9098</v>
+        <v>79.544</v>
       </c>
     </row>
     <row r="47">
@@ -7566,13 +7566,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>82.52379999999999</v>
+        <v>82.21299999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>79.3462</v>
+        <v>79.29730000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>82.5288</v>
+        <v>81.94459999999999</v>
       </c>
     </row>
     <row r="48">
@@ -7580,13 +7580,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>84.8434</v>
+        <v>83.8831</v>
       </c>
       <c r="C48" t="n">
-        <v>80.7841</v>
+        <v>80.3192</v>
       </c>
       <c r="D48" t="n">
-        <v>85.09439999999999</v>
+        <v>83.4222</v>
       </c>
     </row>
     <row r="49">
@@ -7594,13 +7594,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>87.5718</v>
+        <v>86.2839</v>
       </c>
       <c r="C49" t="n">
-        <v>81.9007</v>
+        <v>81.7561</v>
       </c>
       <c r="D49" t="n">
-        <v>88.02070000000001</v>
+        <v>87.9786</v>
       </c>
     </row>
     <row r="50">
@@ -7608,13 +7608,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>89.2811</v>
+        <v>89.76479999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>84.375</v>
+        <v>83.267</v>
       </c>
       <c r="D50" t="n">
-        <v>91.3056</v>
+        <v>90.8586</v>
       </c>
     </row>
     <row r="51">
@@ -7622,13 +7622,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>93.7641</v>
+        <v>92.6489</v>
       </c>
       <c r="C51" t="n">
-        <v>86.0102</v>
+        <v>85.7176</v>
       </c>
       <c r="D51" t="n">
-        <v>95.34999999999999</v>
+        <v>95.24630000000001</v>
       </c>
     </row>
     <row r="52">
@@ -7636,13 +7636,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>97.90689999999999</v>
+        <v>99.23999999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>87.89570000000001</v>
+        <v>89.2955</v>
       </c>
       <c r="D52" t="n">
-        <v>100.791</v>
+        <v>101.593</v>
       </c>
     </row>
     <row r="53">
@@ -7650,13 +7650,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>104.494</v>
+        <v>104.506</v>
       </c>
       <c r="C53" t="n">
-        <v>89.5941</v>
+        <v>92.58069999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>106.89</v>
+        <v>107.243</v>
       </c>
     </row>
     <row r="54">
@@ -7664,13 +7664,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>109.815</v>
+        <v>108.951</v>
       </c>
       <c r="C54" t="n">
-        <v>91.2627</v>
+        <v>92.8532</v>
       </c>
       <c r="D54" t="n">
-        <v>113.261</v>
+        <v>114.74</v>
       </c>
     </row>
     <row r="55">
@@ -7678,13 +7678,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>114.818</v>
+        <v>115.58</v>
       </c>
       <c r="C55" t="n">
-        <v>94.1371</v>
+        <v>98.6354</v>
       </c>
       <c r="D55" t="n">
-        <v>120.428</v>
+        <v>121.094</v>
       </c>
     </row>
     <row r="56">
@@ -7692,13 +7692,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>120.196</v>
+        <v>120.717</v>
       </c>
       <c r="C56" t="n">
-        <v>100.593</v>
+        <v>101.206</v>
       </c>
       <c r="D56" t="n">
-        <v>128.637</v>
+        <v>130.069</v>
       </c>
     </row>
     <row r="57">
@@ -7706,13 +7706,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>126.033</v>
+        <v>126.616</v>
       </c>
       <c r="C57" t="n">
-        <v>106.012</v>
+        <v>107.951</v>
       </c>
       <c r="D57" t="n">
-        <v>135.152</v>
+        <v>135.956</v>
       </c>
     </row>
     <row r="58">
@@ -7720,13 +7720,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>130.909</v>
+        <v>132.731</v>
       </c>
       <c r="C58" t="n">
-        <v>114.063</v>
+        <v>116.3</v>
       </c>
       <c r="D58" t="n">
-        <v>141.876</v>
+        <v>143.903</v>
       </c>
     </row>
     <row r="59">
@@ -7734,13 +7734,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>136.567</v>
+        <v>138.296</v>
       </c>
       <c r="C59" t="n">
-        <v>122.193</v>
+        <v>121.892</v>
       </c>
       <c r="D59" t="n">
-        <v>149.475</v>
+        <v>150.228</v>
       </c>
     </row>
     <row r="60">
@@ -7748,13 +7748,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>142.197</v>
+        <v>143.933</v>
       </c>
       <c r="C60" t="n">
-        <v>128.298</v>
+        <v>130.606</v>
       </c>
       <c r="D60" t="n">
-        <v>155.557</v>
+        <v>156.406</v>
       </c>
     </row>
     <row r="61">
@@ -7762,13 +7762,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>147.688</v>
+        <v>149.062</v>
       </c>
       <c r="C61" t="n">
-        <v>136.562</v>
+        <v>138.194</v>
       </c>
       <c r="D61" t="n">
-        <v>161.502</v>
+        <v>163.119</v>
       </c>
     </row>
     <row r="62">
@@ -7776,13 +7776,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>152.965</v>
+        <v>155.969</v>
       </c>
       <c r="C62" t="n">
-        <v>144.674</v>
+        <v>146.627</v>
       </c>
       <c r="D62" t="n">
-        <v>167.499</v>
+        <v>168.162</v>
       </c>
     </row>
     <row r="63">
@@ -7790,13 +7790,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>158.366</v>
+        <v>159.106</v>
       </c>
       <c r="C63" t="n">
-        <v>152.665</v>
+        <v>153.184</v>
       </c>
       <c r="D63" t="n">
-        <v>171.902</v>
+        <v>174.29</v>
       </c>
     </row>
     <row r="64">
@@ -7804,13 +7804,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>162.724</v>
+        <v>164.839</v>
       </c>
       <c r="C64" t="n">
-        <v>159.246</v>
+        <v>162.285</v>
       </c>
       <c r="D64" t="n">
-        <v>177.646</v>
+        <v>180.513</v>
       </c>
     </row>
     <row r="65">
@@ -7818,13 +7818,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>167.144</v>
+        <v>168.283</v>
       </c>
       <c r="C65" t="n">
-        <v>167.241</v>
+        <v>169.445</v>
       </c>
       <c r="D65" t="n">
-        <v>182.953</v>
+        <v>184.083</v>
       </c>
     </row>
     <row r="66">
@@ -7832,13 +7832,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>171.37</v>
+        <v>173.549</v>
       </c>
       <c r="C66" t="n">
-        <v>174.786</v>
+        <v>175.312</v>
       </c>
       <c r="D66" t="n">
-        <v>186.714</v>
+        <v>189.15</v>
       </c>
     </row>
     <row r="67">
@@ -7846,13 +7846,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>176.733</v>
+        <v>178.139</v>
       </c>
       <c r="C67" t="n">
-        <v>182.103</v>
+        <v>183.805</v>
       </c>
       <c r="D67" t="n">
-        <v>191.727</v>
+        <v>194.202</v>
       </c>
     </row>
     <row r="68">
@@ -7860,13 +7860,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>179.806</v>
+        <v>182.044</v>
       </c>
       <c r="C68" t="n">
-        <v>187.552</v>
+        <v>189.847</v>
       </c>
       <c r="D68" t="n">
-        <v>195.627</v>
+        <v>197.209</v>
       </c>
     </row>
     <row r="69">
@@ -7874,13 +7874,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>183.195</v>
+        <v>189.55</v>
       </c>
       <c r="C69" t="n">
-        <v>193.356</v>
+        <v>195.176</v>
       </c>
       <c r="D69" t="n">
-        <v>198.614</v>
+        <v>201.107</v>
       </c>
     </row>
     <row r="70">
@@ -7888,13 +7888,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>188.304</v>
+        <v>190.694</v>
       </c>
       <c r="C70" t="n">
-        <v>199.257</v>
+        <v>200.728</v>
       </c>
       <c r="D70" t="n">
-        <v>203.098</v>
+        <v>205.713</v>
       </c>
     </row>
     <row r="71">
@@ -7902,13 +7902,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>191.522</v>
+        <v>194.419</v>
       </c>
       <c r="C71" t="n">
-        <v>204.634</v>
+        <v>206.046</v>
       </c>
       <c r="D71" t="n">
-        <v>207.134</v>
+        <v>208.772</v>
       </c>
     </row>
     <row r="72">
@@ -7916,13 +7916,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>196.763</v>
+        <v>199.739</v>
       </c>
       <c r="C72" t="n">
-        <v>209.786</v>
+        <v>211.096</v>
       </c>
       <c r="D72" t="n">
-        <v>210.895</v>
+        <v>212.971</v>
       </c>
     </row>
     <row r="73">
@@ -7930,13 +7930,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>201.197</v>
+        <v>202.575</v>
       </c>
       <c r="C73" t="n">
-        <v>215.047</v>
+        <v>216.586</v>
       </c>
       <c r="D73" t="n">
-        <v>214.193</v>
+        <v>215.973</v>
       </c>
     </row>
     <row r="74">
@@ -7944,13 +7944,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>201.512</v>
+        <v>203.977</v>
       </c>
       <c r="C74" t="n">
-        <v>220.207</v>
+        <v>221.235</v>
       </c>
       <c r="D74" t="n">
-        <v>217.204</v>
+        <v>219.74</v>
       </c>
     </row>
     <row r="75">
@@ -7958,13 +7958,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>204.236</v>
+        <v>207.713</v>
       </c>
       <c r="C75" t="n">
-        <v>224.519</v>
+        <v>227.696</v>
       </c>
       <c r="D75" t="n">
-        <v>220.012</v>
+        <v>223.121</v>
       </c>
     </row>
     <row r="76">
@@ -7972,13 +7972,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>207.437</v>
+        <v>210.082</v>
       </c>
       <c r="C76" t="n">
-        <v>230.277</v>
+        <v>231.588</v>
       </c>
       <c r="D76" t="n">
-        <v>224.728</v>
+        <v>226.745</v>
       </c>
     </row>
     <row r="77">
@@ -7986,13 +7986,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>211.841</v>
+        <v>213.429</v>
       </c>
       <c r="C77" t="n">
-        <v>234.813</v>
+        <v>235.737</v>
       </c>
       <c r="D77" t="n">
-        <v>226.892</v>
+        <v>230.399</v>
       </c>
     </row>
     <row r="78">
@@ -8000,13 +8000,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>215.166</v>
+        <v>216.744</v>
       </c>
       <c r="C78" t="n">
-        <v>239.277</v>
+        <v>240.177</v>
       </c>
       <c r="D78" t="n">
-        <v>232.19</v>
+        <v>232.686</v>
       </c>
     </row>
     <row r="79">
@@ -8014,13 +8014,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>218.341</v>
+        <v>219.044</v>
       </c>
       <c r="C79" t="n">
-        <v>243.856</v>
+        <v>245.471</v>
       </c>
       <c r="D79" t="n">
-        <v>234.663</v>
+        <v>235.987</v>
       </c>
     </row>
     <row r="80">
@@ -8028,13 +8028,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>222.478</v>
+        <v>223.731</v>
       </c>
       <c r="C80" t="n">
-        <v>247.988</v>
+        <v>249.229</v>
       </c>
       <c r="D80" t="n">
-        <v>238.834</v>
+        <v>238.271</v>
       </c>
     </row>
     <row r="81">
@@ -8042,13 +8042,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>224.953</v>
+        <v>227.535</v>
       </c>
       <c r="C81" t="n">
-        <v>252.2</v>
+        <v>253.056</v>
       </c>
       <c r="D81" t="n">
-        <v>241.388</v>
+        <v>244.08</v>
       </c>
     </row>
     <row r="82">
@@ -8056,13 +8056,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>229.475</v>
+        <v>231.592</v>
       </c>
       <c r="C82" t="n">
-        <v>256.788</v>
+        <v>257.564</v>
       </c>
       <c r="D82" t="n">
-        <v>245.327</v>
+        <v>247.554</v>
       </c>
     </row>
     <row r="83">
@@ -8070,13 +8070,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>232.185</v>
+        <v>234.702</v>
       </c>
       <c r="C83" t="n">
-        <v>253.308</v>
+        <v>254.152</v>
       </c>
       <c r="D83" t="n">
-        <v>245.881</v>
+        <v>248.17</v>
       </c>
     </row>
     <row r="84">
@@ -8084,13 +8084,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>235.805</v>
+        <v>237.541</v>
       </c>
       <c r="C84" t="n">
-        <v>256.912</v>
+        <v>257.818</v>
       </c>
       <c r="D84" t="n">
-        <v>249.493</v>
+        <v>250.496</v>
       </c>
     </row>
     <row r="85">
@@ -8098,13 +8098,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>239.039</v>
+        <v>241.498</v>
       </c>
       <c r="C85" t="n">
-        <v>260.847</v>
+        <v>261.584</v>
       </c>
       <c r="D85" t="n">
-        <v>250.39</v>
+        <v>254.445</v>
       </c>
     </row>
     <row r="86">
@@ -8112,13 +8112,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>242.341</v>
+        <v>245.238</v>
       </c>
       <c r="C86" t="n">
-        <v>264.215</v>
+        <v>265.971</v>
       </c>
       <c r="D86" t="n">
-        <v>254.616</v>
+        <v>256.215</v>
       </c>
     </row>
     <row r="87">
@@ -8126,13 +8126,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>246.938</v>
+        <v>249.433</v>
       </c>
       <c r="C87" t="n">
-        <v>268.389</v>
+        <v>269.302</v>
       </c>
       <c r="D87" t="n">
-        <v>256.898</v>
+        <v>260.279</v>
       </c>
     </row>
     <row r="88">
@@ -8140,13 +8140,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>248.736</v>
+        <v>252.31</v>
       </c>
       <c r="C88" t="n">
-        <v>271.709</v>
+        <v>272.758</v>
       </c>
       <c r="D88" t="n">
-        <v>260.23</v>
+        <v>261.889</v>
       </c>
     </row>
     <row r="89">
@@ -8154,13 +8154,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>245.36</v>
+        <v>247.653</v>
       </c>
       <c r="C89" t="n">
-        <v>275.46</v>
+        <v>276.995</v>
       </c>
       <c r="D89" t="n">
-        <v>263.2</v>
+        <v>265.961</v>
       </c>
     </row>
     <row r="90">
@@ -8168,13 +8168,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>248.236</v>
+        <v>249.561</v>
       </c>
       <c r="C90" t="n">
-        <v>279.185</v>
+        <v>279.576</v>
       </c>
       <c r="D90" t="n">
-        <v>266.295</v>
+        <v>268.53</v>
       </c>
     </row>
     <row r="91">
@@ -8182,13 +8182,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>250.945</v>
+        <v>252.525</v>
       </c>
       <c r="C91" t="n">
-        <v>282.199</v>
+        <v>283.222</v>
       </c>
       <c r="D91" t="n">
-        <v>267.304</v>
+        <v>271.85</v>
       </c>
     </row>
     <row r="92">
@@ -8196,13 +8196,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>253.807</v>
+        <v>254.123</v>
       </c>
       <c r="C92" t="n">
-        <v>286.428</v>
+        <v>287.087</v>
       </c>
       <c r="D92" t="n">
-        <v>270.441</v>
+        <v>272.771</v>
       </c>
     </row>
     <row r="93">
@@ -8210,13 +8210,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>256.297</v>
+        <v>258.037</v>
       </c>
       <c r="C93" t="n">
-        <v>289.315</v>
+        <v>291.249</v>
       </c>
       <c r="D93" t="n">
-        <v>274.297</v>
+        <v>276.219</v>
       </c>
     </row>
     <row r="94">
@@ -8224,13 +8224,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>259.208</v>
+        <v>260.285</v>
       </c>
       <c r="C94" t="n">
-        <v>292.438</v>
+        <v>294.407</v>
       </c>
       <c r="D94" t="n">
-        <v>277.114</v>
+        <v>279.598</v>
       </c>
     </row>
     <row r="95">
@@ -8238,13 +8238,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>262.493</v>
+        <v>263.084</v>
       </c>
       <c r="C95" t="n">
-        <v>296.997</v>
+        <v>297.465</v>
       </c>
       <c r="D95" t="n">
-        <v>280.391</v>
+        <v>282.371</v>
       </c>
     </row>
     <row r="96">
@@ -8252,13 +8252,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>266.119</v>
+        <v>266.68</v>
       </c>
       <c r="C96" t="n">
-        <v>299.958</v>
+        <v>301.418</v>
       </c>
       <c r="D96" t="n">
-        <v>283.033</v>
+        <v>284.441</v>
       </c>
     </row>
     <row r="97">
@@ -8266,13 +8266,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>268.725</v>
+        <v>269.818</v>
       </c>
       <c r="C97" t="n">
-        <v>294.179</v>
+        <v>294.409</v>
       </c>
       <c r="D97" t="n">
-        <v>282.463</v>
+        <v>285.085</v>
       </c>
     </row>
     <row r="98">
@@ -8280,13 +8280,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>271.965</v>
+        <v>275.464</v>
       </c>
       <c r="C98" t="n">
-        <v>295.712</v>
+        <v>296.792</v>
       </c>
       <c r="D98" t="n">
-        <v>286.806</v>
+        <v>287.936</v>
       </c>
     </row>
     <row r="99">
@@ -8294,13 +8294,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>276.368</v>
+        <v>278.527</v>
       </c>
       <c r="C99" t="n">
-        <v>298.814</v>
+        <v>300.743</v>
       </c>
       <c r="D99" t="n">
-        <v>290.393</v>
+        <v>292.371</v>
       </c>
     </row>
     <row r="100">
@@ -8308,13 +8308,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>278.903</v>
+        <v>279.944</v>
       </c>
       <c r="C100" t="n">
-        <v>301.125</v>
+        <v>302.816</v>
       </c>
       <c r="D100" t="n">
-        <v>292.206</v>
+        <v>294.175</v>
       </c>
     </row>
     <row r="101">
@@ -8322,13 +8322,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>283.568</v>
+        <v>284.318</v>
       </c>
       <c r="C101" t="n">
-        <v>305.301</v>
+        <v>305.738</v>
       </c>
       <c r="D101" t="n">
-        <v>294.854</v>
+        <v>295.185</v>
       </c>
     </row>
     <row r="102">
@@ -8336,13 +8336,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>287.876</v>
+        <v>288.492</v>
       </c>
       <c r="C102" t="n">
-        <v>308.31</v>
+        <v>309.445</v>
       </c>
       <c r="D102" t="n">
-        <v>298.389</v>
+        <v>299.024</v>
       </c>
     </row>
     <row r="103">
@@ -8350,13 +8350,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>278.305</v>
+        <v>279.704</v>
       </c>
       <c r="C103" t="n">
-        <v>312.112</v>
+        <v>313.07</v>
       </c>
       <c r="D103" t="n">
-        <v>299.553</v>
+        <v>301.012</v>
       </c>
     </row>
     <row r="104">
@@ -8364,13 +8364,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>282.601</v>
+        <v>282.888</v>
       </c>
       <c r="C104" t="n">
-        <v>315.072</v>
+        <v>316.863</v>
       </c>
       <c r="D104" t="n">
-        <v>302.539</v>
+        <v>304.029</v>
       </c>
     </row>
     <row r="105">
@@ -8378,13 +8378,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>284.674</v>
+        <v>286.786</v>
       </c>
       <c r="C105" t="n">
-        <v>319.018</v>
+        <v>320.138</v>
       </c>
       <c r="D105" t="n">
-        <v>306.229</v>
+        <v>306.395</v>
       </c>
     </row>
     <row r="106">
@@ -8392,13 +8392,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>286.174</v>
+        <v>289.466</v>
       </c>
       <c r="C106" t="n">
-        <v>322.871</v>
+        <v>324.249</v>
       </c>
       <c r="D106" t="n">
-        <v>307.036</v>
+        <v>310</v>
       </c>
     </row>
     <row r="107">
@@ -8406,13 +8406,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>289.228</v>
+        <v>291.333</v>
       </c>
       <c r="C107" t="n">
-        <v>327.395</v>
+        <v>328.668</v>
       </c>
       <c r="D107" t="n">
-        <v>311.546</v>
+        <v>312.164</v>
       </c>
     </row>
     <row r="108">
@@ -8420,13 +8420,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>294.593</v>
+        <v>295.126</v>
       </c>
       <c r="C108" t="n">
-        <v>331.586</v>
+        <v>334.054</v>
       </c>
       <c r="D108" t="n">
-        <v>314.445</v>
+        <v>315.261</v>
       </c>
     </row>
     <row r="109">
@@ -8434,13 +8434,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>298.31</v>
+        <v>299.935</v>
       </c>
       <c r="C109" t="n">
-        <v>337.029</v>
+        <v>337.511</v>
       </c>
       <c r="D109" t="n">
-        <v>317.188</v>
+        <v>319.35</v>
       </c>
     </row>
     <row r="110">
@@ -8448,13 +8448,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>302.097</v>
+        <v>303.032</v>
       </c>
       <c r="C110" t="n">
-        <v>342.291</v>
+        <v>343.796</v>
       </c>
       <c r="D110" t="n">
-        <v>318.755</v>
+        <v>321.542</v>
       </c>
     </row>
     <row r="111">
@@ -8462,13 +8462,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>305.519</v>
+        <v>307.936</v>
       </c>
       <c r="C111" t="n">
-        <v>334.213</v>
+        <v>334.564</v>
       </c>
       <c r="D111" t="n">
-        <v>320.406</v>
+        <v>321.518</v>
       </c>
     </row>
     <row r="112">
@@ -8476,13 +8476,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>310.365</v>
+        <v>313.062</v>
       </c>
       <c r="C112" t="n">
-        <v>339.242</v>
+        <v>340.112</v>
       </c>
       <c r="D112" t="n">
-        <v>324.48</v>
+        <v>324.982</v>
       </c>
     </row>
     <row r="113">
@@ -8490,13 +8490,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>316.042</v>
+        <v>317.441</v>
       </c>
       <c r="C113" t="n">
-        <v>345.243</v>
+        <v>345.467</v>
       </c>
       <c r="D113" t="n">
-        <v>326.297</v>
+        <v>328.854</v>
       </c>
     </row>
     <row r="114">
@@ -8504,13 +8504,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>322.529</v>
+        <v>323.477</v>
       </c>
       <c r="C114" t="n">
-        <v>351.717</v>
+        <v>352.031</v>
       </c>
       <c r="D114" t="n">
-        <v>331.71</v>
+        <v>333.844</v>
       </c>
     </row>
     <row r="115">
@@ -8518,13 +8518,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>329.248</v>
+        <v>328.69</v>
       </c>
       <c r="C115" t="n">
-        <v>357.396</v>
+        <v>357.454</v>
       </c>
       <c r="D115" t="n">
-        <v>335.775</v>
+        <v>337.444</v>
       </c>
     </row>
     <row r="116">
@@ -8532,13 +8532,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>335.762</v>
+        <v>334.508</v>
       </c>
       <c r="C116" t="n">
-        <v>361.347</v>
+        <v>363.475</v>
       </c>
       <c r="D116" t="n">
-        <v>341.286</v>
+        <v>343.448</v>
       </c>
     </row>
     <row r="117">
@@ -8546,13 +8546,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>330.359</v>
+        <v>328.545</v>
       </c>
       <c r="C117" t="n">
-        <v>369.342</v>
+        <v>370.08</v>
       </c>
       <c r="D117" t="n">
-        <v>347.878</v>
+        <v>348.861</v>
       </c>
     </row>
     <row r="118">
@@ -8560,13 +8560,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>336.949</v>
+        <v>337.546</v>
       </c>
       <c r="C118" t="n">
-        <v>376.062</v>
+        <v>376.881</v>
       </c>
       <c r="D118" t="n">
-        <v>352.79</v>
+        <v>353.8</v>
       </c>
     </row>
     <row r="119">
@@ -8574,13 +8574,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>342.592</v>
+        <v>343.678</v>
       </c>
       <c r="C119" t="n">
-        <v>382.348</v>
+        <v>385.445</v>
       </c>
       <c r="D119" t="n">
-        <v>359.356</v>
+        <v>360.55</v>
       </c>
     </row>
   </sheetData>
